--- a/BE/ims_backend/spoil_reports.xlsx
+++ b/BE/ims_backend/spoil_reports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,15 +429,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Item UM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Spoil Report Creator</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Date Reported</t>
         </is>
@@ -449,15 +454,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>123</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-02-18 14:07:57</t>
         </is>
@@ -469,15 +479,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-02-18 14:11:07</t>
         </is>
@@ -489,15 +504,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-02-18 14:36:36</t>
         </is>
@@ -509,15 +529,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:42</t>
         </is>
@@ -529,15 +554,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:44</t>
         </is>
@@ -549,15 +579,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:46</t>
         </is>
@@ -569,15 +604,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:48</t>
         </is>
@@ -589,15 +629,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:50</t>
         </is>
@@ -609,15 +654,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:52</t>
         </is>
@@ -629,15 +679,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:53</t>
         </is>
@@ -649,15 +704,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-02-18 19:18:55</t>
         </is>
@@ -669,15 +729,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-02-25 02:20:16</t>
         </is>
@@ -689,15 +754,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-02-25 02:21:52</t>
         </is>
@@ -709,15 +779,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-02-25 02:22:23</t>
         </is>
@@ -729,15 +804,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-02-25 02:23:14</t>
         </is>
@@ -749,15 +829,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-02-25 02:23:50</t>
         </is>
@@ -769,15 +854,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-02-25 02:24:06</t>
         </is>
@@ -789,15 +879,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-02-25 02:24:35</t>
         </is>
@@ -809,15 +904,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-02-25 02:41:24</t>
         </is>
@@ -829,15 +929,20 @@
           <t>Fresh Milk</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>15</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-02-25 13:20:14</t>
         </is>
@@ -849,15 +954,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>14</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cafe</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-02-26 20:44:21</t>
         </is>
@@ -869,15 +979,20 @@
           <t>Coffee Beans</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>4</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Intern</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-03-10 19:42:29</t>
         </is>
